--- a/尼特RD工作進度.xlsx
+++ b/尼特RD工作進度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TimeControl修改時間計算方式</t>
+    <t>類別名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間計算方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,15 +75,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,13 +103,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +133,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,33 +437,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -430,8 +478,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -444,16 +502,20 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="89.75" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
